--- a/biology/Zoologie/Brahmane_(race_bovine)/Brahmane_(race_bovine).xlsx
+++ b/biology/Zoologie/Brahmane_(race_bovine)/Brahmane_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le brahmane (en anglais : Brahman) est une race bovine.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle est issue de zébus élevés depuis plusieurs milliers d'années en Inde. La vache y est sacrée pour les hindous, aussi son rôle se borne-t-il à donner du lait (la traite est autorisée). Seules de rares ethnies consomment sa viande. Le cuir est touché par cette restriction. Dans certains États, les bovins sont aussi utilisés pour la traction de charrettes ou de charrue. Les hindous ont longtemps refusé de vendre leurs animaux aux occidentaux, mais quelques reproducteurs avaient pu quitter le sous-continent pour donner des élevages en Australie ou en Amérique (aux États-Unis, au Brésil). Même s'ils ont été croisés avec des bovins européens, leur élevage ultérieur sélectif et en autarcie a conservé les qualités d'origine de leurs géniteurs. La race est donc issue du métissage de plusieurs races indienne, mais n'est pas élevée dans ce pays. Les races principales utilisées sont gir et ongole.
 Cette race est utilisée en support à de nombreux croisement raciaux, alliant les qualités de rusticité et de résistance aux maladies du zébu à la productivité des races européennes.
@@ -551,7 +565,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe gris clair et les muqueuses sont noires. Les cornes sont très courtes et les oreilles larges sont pendantes. Le garrot est surmonté d'une bosse caractéristique des zébus.
 </t>
@@ -582,7 +598,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est une race façonnée par plusieurs millénaires de sélection naturelle dans un environnement difficile et changeant. Elle a développé une adaptation qui la rend très intéressante dans les croisements pour le bétail de zone tropicale.
 Résistance aux insectes et aux maladies qu'ils véhiculent.
